--- a/pred_ohlcv/54_21/2020-01-12 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 AOA ohlcv.xlsx
@@ -2810,7 +2810,7 @@
         <v>-21021659.11091064</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-21023813.36391064</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-21063472.58191064</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-20960201.79911064</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-21058308.51231064</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-20840519.57731064</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-20711711.06461064</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-20710711.06461064</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-20715851.60751064</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-20717175.82441064</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-20761492.57161064</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-21247155.60891064</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-17406770.72891064</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-19429166.60891064</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-21738780.48891064</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-25774051.02941064</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-28419956.43031064</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-28419956.43031064</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-28345025.16021064</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-28331098.60191064</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-28331098.60191064</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-28326654.60191064</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 AOA ohlcv.xlsx
@@ -2810,7 +2810,7 @@
         <v>-21021659.11091064</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-21023813.36391064</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-21063472.58191064</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-20960201.79911064</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-21058308.51231064</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-20840519.57731064</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-20711711.06461064</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-20710711.06461064</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-20715851.60751064</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-20717175.82441064</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-20761492.57161064</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-19429166.60891064</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-21738780.48891064</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-20426116.10891064</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-22003552.10891064</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-22020184.26131064</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-25774051.02941064</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-28419956.43031064</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-28419956.43031064</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-28345025.16021064</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-28290344.72521064</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-28781786.60521064</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-29135360.76731064</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-28331098.60191064</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-28331098.60191064</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
